--- a/nodes_source_analyses/energy/energy/energy_power_wind_turbine_inland.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_power_wind_turbine_inland.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/code/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koenvanbemmelen/work/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65740C-1C33-FE41-908C-945FFD04EB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35323C01-E56B-C84A-863B-C5AF8AD5EE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="-22100" windowWidth="25600" windowHeight="15900" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="194">
   <si>
     <t>Source</t>
   </si>
@@ -742,6 +742,15 @@
   </si>
   <si>
     <t>energy_power_wind_turbine_inland.ad</t>
+  </si>
+  <si>
+    <t>NWEA</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2186</t>
+  </si>
+  <si>
+    <t>https://www.nwea.nl/wp-content/uploads/2020/03/NVDE-Hernieuwbare-energiebronnen-op-land-in-de-Regionale-Energiestrategie-feb2020.pdf</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1504,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1740,6 +1749,8 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2366,50 +2377,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4660900" y="28473400"/>
-          <a:ext cx="7454900" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>456184</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -2434,7 +2401,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:srcRect b="17761"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2477,7 +2444,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2521,7 +2488,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2530,6 +2497,50 @@
         <a:xfrm>
           <a:off x="4622800" y="44081700"/>
           <a:ext cx="7023100" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>150282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5083E7E9-855C-F626-10B5-4A6A64B3A6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3784600" y="30886399"/>
+          <a:ext cx="6540500" cy="2398183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,16 +2992,16 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="26" customFormat="1">
@@ -3168,19 +3179,19 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="1" max="1" width="3.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -3862,33 +3873,33 @@
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="94" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="94" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="94" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="94" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="94" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="94" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="94" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="94" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="94" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="94" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="94" customWidth="1"/>
     <col min="7" max="7" width="3" style="94" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="94" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="94" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="94" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" style="94" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="94" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="94" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="94" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="94" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="94" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" style="94" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="94" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="94" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="94" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" style="94" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="94" customWidth="1"/>
-    <col min="23" max="23" width="1.85546875" style="94" customWidth="1"/>
-    <col min="24" max="24" width="55.42578125" style="94" customWidth="1"/>
-    <col min="25" max="16384" width="10.7109375" style="94"/>
+    <col min="8" max="8" width="9.5" style="94" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="94" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="94" customWidth="1"/>
+    <col min="11" max="11" width="1.5" style="94" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="94" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="94" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="94" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="94" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="94" customWidth="1"/>
+    <col min="17" max="17" width="2.1640625" style="94" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="94" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="94" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="94" customWidth="1"/>
+    <col min="21" max="21" width="2.5" style="94" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="94" customWidth="1"/>
+    <col min="23" max="23" width="1.83203125" style="94" customWidth="1"/>
+    <col min="24" max="24" width="55.5" style="94" customWidth="1"/>
+    <col min="25" max="16384" width="10.6640625" style="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="17" thickBot="1"/>
@@ -4508,22 +4519,22 @@
   </sheetPr>
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="46" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="47" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="46" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="47" customWidth="1"/>
     <col min="10" max="10" width="85" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="46"/>
+    <col min="11" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4616,8 +4627,24 @@
       <c r="C8" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="D8" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="46">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="147">
+        <v>45303</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="51"/>
@@ -4894,17 +4921,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N243"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="89" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="89" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="89"/>
-    <col min="4" max="4" width="10.7109375" style="89" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="89"/>
+    <col min="1" max="1" width="5.5" style="89" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="89"/>
+    <col min="4" max="4" width="10.6640625" style="89" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
